--- a/presidentes 2021/Equipos de campaña pres2021.xlsx
+++ b/presidentes 2021/Equipos de campaña pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\Datawrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D1A7AD-EBC9-4836-B154-48826B429EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4DA9F0-A762-4C28-BCB9-40CEEAD453D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -909,7 +909,7 @@
   <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B86" sqref="B86:B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,7 +2371,7 @@
         <v>18</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>19</v>
@@ -2388,7 +2388,7 @@
         <v>18</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>19</v>
@@ -2405,7 +2405,7 @@
         <v>18</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>19</v>
@@ -2422,7 +2422,7 @@
         <v>18</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>19</v>
@@ -2439,7 +2439,7 @@
         <v>18</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>19</v>
@@ -2456,7 +2456,7 @@
         <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>19</v>
@@ -2473,7 +2473,7 @@
         <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>19</v>
@@ -2490,7 +2490,7 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>19</v>
@@ -2507,7 +2507,7 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>19</v>
@@ -2524,7 +2524,7 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>19</v>
@@ -2541,7 +2541,7 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>19</v>
@@ -2558,7 +2558,7 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>19</v>
@@ -2575,7 +2575,7 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>19</v>
@@ -2592,7 +2592,7 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>19</v>
@@ -2609,7 +2609,7 @@
         <v>18</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>19</v>
@@ -2626,7 +2626,7 @@
         <v>18</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>19</v>
@@ -2643,7 +2643,7 @@
         <v>18</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>19</v>
@@ -2660,7 +2660,7 @@
         <v>18</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>19</v>
@@ -2677,7 +2677,7 @@
         <v>18</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>19</v>
@@ -2694,7 +2694,7 @@
         <v>18</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>19</v>
@@ -2711,7 +2711,7 @@
         <v>18</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>19</v>
@@ -2728,7 +2728,7 @@
         <v>18</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>19</v>
@@ -2745,7 +2745,7 @@
         <v>18</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>19</v>
@@ -2762,7 +2762,7 @@
         <v>18</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>19</v>
@@ -2779,7 +2779,7 @@
         <v>18</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>19</v>
@@ -2796,7 +2796,7 @@
         <v>18</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>19</v>
@@ -2813,7 +2813,7 @@
         <v>18</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>19</v>
@@ -2830,7 +2830,7 @@
         <v>18</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>19</v>
@@ -2847,7 +2847,7 @@
         <v>18</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>19</v>
@@ -2864,7 +2864,7 @@
         <v>18</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>19</v>
@@ -2881,7 +2881,7 @@
         <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>19</v>
@@ -2898,7 +2898,7 @@
         <v>18</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>19</v>
@@ -2915,7 +2915,7 @@
         <v>18</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>19</v>
@@ -2932,7 +2932,7 @@
         <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>19</v>
@@ -2949,7 +2949,7 @@
         <v>18</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>19</v>
@@ -2966,7 +2966,7 @@
         <v>18</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>19</v>

--- a/presidentes 2021/Equipos de campaña pres2021.xlsx
+++ b/presidentes 2021/Equipos de campaña pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\Datawrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4DA9F0-A762-4C28-BCB9-40CEEAD453D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4F3CB6-8041-4773-AFD7-0BB0E0D3A30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="185">
   <si>
     <t>candidato</t>
   </si>
@@ -580,6 +580,9 @@
   </si>
   <si>
     <t>Consejo Nacional</t>
+  </si>
+  <si>
+    <t>E. Programático</t>
   </si>
 </sst>
 </file>
@@ -909,7 +912,7 @@
   <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86:B121"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1105,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
@@ -1119,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
         <v>35</v>
@@ -1136,7 +1139,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -1153,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -1170,7 +1173,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E15" t="s">
         <v>38</v>
@@ -1187,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s">
         <v>39</v>
@@ -1204,7 +1207,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
@@ -1221,7 +1224,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E18" t="s">
         <v>41</v>
@@ -1442,7 +1445,7 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E31" t="s">
         <v>60</v>
@@ -1459,7 +1462,7 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E32" t="s">
         <v>61</v>
@@ -1476,7 +1479,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E33" t="s">
         <v>62</v>
@@ -1493,7 +1496,7 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E34" t="s">
         <v>63</v>
@@ -1510,7 +1513,7 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E35" t="s">
         <v>64</v>
@@ -1527,7 +1530,7 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E36" t="s">
         <v>65</v>
@@ -1544,7 +1547,7 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E37" t="s">
         <v>66</v>
@@ -1561,7 +1564,7 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E38" t="s">
         <v>67</v>
@@ -1578,7 +1581,7 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E39" t="s">
         <v>68</v>
@@ -1595,7 +1598,7 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E40" t="s">
         <v>69</v>
@@ -1612,7 +1615,7 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E41" t="s">
         <v>70</v>
@@ -1629,7 +1632,7 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E42" t="s">
         <v>71</v>
@@ -1646,7 +1649,7 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E43" t="s">
         <v>72</v>
@@ -1663,7 +1666,7 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E44" t="s">
         <v>73</v>
@@ -1680,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E45" t="s">
         <v>74</v>
@@ -2020,7 +2023,7 @@
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E65" t="s">
         <v>104</v>
@@ -2037,7 +2040,7 @@
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E66" t="s">
         <v>105</v>
@@ -2054,7 +2057,7 @@
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E67" t="s">
         <v>106</v>
@@ -2615,7 +2618,7 @@
         <v>19</v>
       </c>
       <c r="D100" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E100" t="s">
         <v>143</v>
@@ -2632,7 +2635,7 @@
         <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E101" t="s">
         <v>144</v>

--- a/presidentes 2021/Equipos de campaña pres2021.xlsx
+++ b/presidentes 2021/Equipos de campaña pres2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\Datawrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4F3CB6-8041-4773-AFD7-0BB0E0D3A30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C72BCF5-E693-4A68-B96F-FEA5C1F657EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="184">
   <si>
     <t>candidato</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Sergio Villegas</t>
   </si>
   <si>
-    <t>Equipo Programático</t>
-  </si>
-  <si>
     <t>Emilio Oñate</t>
   </si>
   <si>
@@ -399,9 +396,6 @@
     <t>Gabriela Hurtado</t>
   </si>
   <si>
-    <t>Coordinador General</t>
-  </si>
-  <si>
     <t>Andrés Maureira</t>
   </si>
   <si>
@@ -583,6 +577,9 @@
   </si>
   <si>
     <t>E. Programático</t>
+  </si>
+  <si>
+    <t>Coord. General</t>
   </si>
 </sst>
 </file>
@@ -912,7 +909,7 @@
   <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1034,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -1054,10 +1051,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1071,10 +1068,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1088,10 +1085,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1105,10 +1102,10 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1122,10 +1119,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1139,10 +1136,10 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1156,10 +1153,10 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1173,10 +1170,10 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1190,10 +1187,10 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1207,10 +1204,10 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1224,10 +1221,10 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1241,10 +1238,10 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
         <v>42</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1258,10 +1255,10 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1275,10 +1272,10 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
         <v>45</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1292,10 +1289,10 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
         <v>47</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1309,10 +1306,10 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
         <v>49</v>
-      </c>
-      <c r="E23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1326,10 +1323,10 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
         <v>51</v>
-      </c>
-      <c r="E24" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1343,10 +1340,10 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1360,10 +1357,10 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1377,10 +1374,10 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1394,10 +1391,10 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1411,10 +1408,10 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1428,10 +1425,10 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1445,10 +1442,10 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1462,10 +1459,10 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1479,10 +1476,10 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1496,10 +1493,10 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1513,10 +1510,10 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1530,10 +1527,10 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1547,10 +1544,10 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1564,10 +1561,10 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1581,10 +1578,10 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1598,10 +1595,10 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1615,10 +1612,10 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1632,10 +1629,10 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1649,10 +1646,10 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1666,10 +1663,10 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1683,10 +1680,10 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>184</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1700,10 +1697,10 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" t="s">
         <v>75</v>
-      </c>
-      <c r="E46" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1717,10 +1714,10 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1734,10 +1731,10 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" t="s">
         <v>78</v>
-      </c>
-      <c r="E48" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1751,10 +1748,10 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1768,10 +1765,10 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" t="s">
         <v>81</v>
-      </c>
-      <c r="E50" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1785,10 +1782,10 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" t="s">
         <v>83</v>
-      </c>
-      <c r="E51" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1802,10 +1799,10 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" t="s">
         <v>85</v>
-      </c>
-      <c r="E52" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1819,10 +1816,10 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" t="s">
         <v>87</v>
-      </c>
-      <c r="E53" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1836,10 +1833,10 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" t="s">
         <v>89</v>
-      </c>
-      <c r="E54" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1853,10 +1850,10 @@
         <v>13</v>
       </c>
       <c r="D55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" t="s">
         <v>91</v>
-      </c>
-      <c r="E55" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1870,10 +1867,10 @@
         <v>13</v>
       </c>
       <c r="D56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" t="s">
         <v>93</v>
-      </c>
-      <c r="E56" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1887,10 +1884,10 @@
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1904,10 +1901,10 @@
         <v>13</v>
       </c>
       <c r="D58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" t="s">
         <v>96</v>
-      </c>
-      <c r="E58" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1924,7 +1921,7 @@
         <v>22</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1941,7 +1938,7 @@
         <v>22</v>
       </c>
       <c r="E60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1958,7 +1955,7 @@
         <v>22</v>
       </c>
       <c r="E61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1975,7 +1972,7 @@
         <v>22</v>
       </c>
       <c r="E62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1992,7 +1989,7 @@
         <v>22</v>
       </c>
       <c r="E63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2006,7 +2003,7 @@
         <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="E64" t="s">
         <v>103</v>
@@ -2023,7 +2020,7 @@
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E65" t="s">
         <v>104</v>
@@ -2040,7 +2037,7 @@
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E66" t="s">
         <v>105</v>
@@ -2057,10 +2054,10 @@
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2074,10 +2071,10 @@
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2091,10 +2088,10 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2108,10 +2105,10 @@
         <v>15</v>
       </c>
       <c r="D70" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" t="s">
         <v>109</v>
-      </c>
-      <c r="E70" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2128,7 +2125,7 @@
         <v>22</v>
       </c>
       <c r="E71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2145,7 +2142,7 @@
         <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2162,7 +2159,7 @@
         <v>22</v>
       </c>
       <c r="E73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2179,7 +2176,7 @@
         <v>22</v>
       </c>
       <c r="E74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2196,7 +2193,7 @@
         <v>22</v>
       </c>
       <c r="E75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2213,7 +2210,7 @@
         <v>22</v>
       </c>
       <c r="E76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2230,7 +2227,7 @@
         <v>22</v>
       </c>
       <c r="E77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2247,7 +2244,7 @@
         <v>22</v>
       </c>
       <c r="E78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2261,10 +2258,10 @@
         <v>17</v>
       </c>
       <c r="D79" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" t="s">
         <v>119</v>
-      </c>
-      <c r="E79" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2278,10 +2275,10 @@
         <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E80" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2295,10 +2292,10 @@
         <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2312,10 +2309,10 @@
         <v>17</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2329,10 +2326,10 @@
         <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="E83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2346,10 +2343,10 @@
         <v>17</v>
       </c>
       <c r="D84" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E84" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2363,10 +2360,10 @@
         <v>17</v>
       </c>
       <c r="D85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2380,10 +2377,10 @@
         <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E86" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2397,10 +2394,10 @@
         <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E87" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,10 +2411,10 @@
         <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E88" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2434,7 +2431,7 @@
         <v>22</v>
       </c>
       <c r="E89" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2451,7 +2448,7 @@
         <v>22</v>
       </c>
       <c r="E90" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2468,7 +2465,7 @@
         <v>22</v>
       </c>
       <c r="E91" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2485,7 +2482,7 @@
         <v>22</v>
       </c>
       <c r="E92" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2502,7 +2499,7 @@
         <v>22</v>
       </c>
       <c r="E93" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2516,10 +2513,10 @@
         <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E94" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2533,10 +2530,10 @@
         <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E95" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2550,10 +2547,10 @@
         <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E96" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2567,10 +2564,10 @@
         <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E97" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2584,10 +2581,10 @@
         <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E98" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2601,10 +2598,10 @@
         <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="E99" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2618,10 +2615,10 @@
         <v>19</v>
       </c>
       <c r="D100" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E100" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2635,10 +2632,10 @@
         <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E101" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2652,10 +2649,10 @@
         <v>19</v>
       </c>
       <c r="D102" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E102" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2669,10 +2666,10 @@
         <v>19</v>
       </c>
       <c r="D103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E103" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2686,10 +2683,10 @@
         <v>19</v>
       </c>
       <c r="D104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E104" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2703,10 +2700,10 @@
         <v>19</v>
       </c>
       <c r="D105" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E105" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2720,10 +2717,10 @@
         <v>19</v>
       </c>
       <c r="D106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E106" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2737,10 +2734,10 @@
         <v>19</v>
       </c>
       <c r="D107" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E107" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2754,10 +2751,10 @@
         <v>19</v>
       </c>
       <c r="D108" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E108" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2771,10 +2768,10 @@
         <v>19</v>
       </c>
       <c r="D109" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E109" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2788,10 +2785,10 @@
         <v>19</v>
       </c>
       <c r="D110" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E110" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2805,10 +2802,10 @@
         <v>19</v>
       </c>
       <c r="D111" t="s">
+        <v>151</v>
+      </c>
+      <c r="E111" t="s">
         <v>153</v>
-      </c>
-      <c r="E111" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2822,10 +2819,10 @@
         <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E112" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2839,10 +2836,10 @@
         <v>19</v>
       </c>
       <c r="D113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E113" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2856,10 +2853,10 @@
         <v>19</v>
       </c>
       <c r="D114" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E114" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2873,10 +2870,10 @@
         <v>19</v>
       </c>
       <c r="D115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E115" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2890,10 +2887,10 @@
         <v>19</v>
       </c>
       <c r="D116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E116" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2907,10 +2904,10 @@
         <v>19</v>
       </c>
       <c r="D117" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E117" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2924,10 +2921,10 @@
         <v>19</v>
       </c>
       <c r="D118" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E118" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2941,10 +2938,10 @@
         <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E119" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2958,10 +2955,10 @@
         <v>19</v>
       </c>
       <c r="D120" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E120" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2975,10 +2972,10 @@
         <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E121" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -2992,10 +2989,10 @@
         <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E122" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3009,10 +3006,10 @@
         <v>21</v>
       </c>
       <c r="D123" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="E123" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3026,10 +3023,10 @@
         <v>21</v>
       </c>
       <c r="D124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E124" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3046,7 +3043,7 @@
         <v>29</v>
       </c>
       <c r="E125" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3063,7 +3060,7 @@
         <v>29</v>
       </c>
       <c r="E126" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3077,10 +3074,10 @@
         <v>21</v>
       </c>
       <c r="D127" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E127" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3094,10 +3091,10 @@
         <v>21</v>
       </c>
       <c r="D128" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E128" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3111,10 +3108,10 @@
         <v>21</v>
       </c>
       <c r="D129" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E129" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3128,10 +3125,10 @@
         <v>21</v>
       </c>
       <c r="D130" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E130" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3145,10 +3142,10 @@
         <v>21</v>
       </c>
       <c r="D131" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E131" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3162,10 +3159,10 @@
         <v>21</v>
       </c>
       <c r="D132" t="s">
+        <v>172</v>
+      </c>
+      <c r="E132" t="s">
         <v>174</v>
-      </c>
-      <c r="E132" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3179,10 +3176,10 @@
         <v>21</v>
       </c>
       <c r="D133" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E133" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3196,10 +3193,10 @@
         <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E134" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3213,10 +3210,10 @@
         <v>21</v>
       </c>
       <c r="D135" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E135" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3230,13 +3227,16 @@
         <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E136" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E137">
+    <sortCondition ref="A2:A137"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
